--- a/teaching/traditional_assets/database/data/netherlands/netherlands_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/netherlands/netherlands_bank_money_center.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ4"/>
+  <dimension ref="A1:AQ5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.13495</v>
+        <v>-0.0204</v>
       </c>
       <c r="E2">
-        <v>0.654</v>
+        <v>-0.224</v>
       </c>
       <c r="F2">
-        <v>-0.02375</v>
+        <v>-0.09914000000000001</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -606,103 +606,97 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.001026338990839474</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0008228260674398002</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>5949.6</v>
+        <v>2347.4</v>
       </c>
       <c r="L2">
-        <v>0.3010337028622893</v>
+        <v>0.09983158682634731</v>
       </c>
       <c r="M2">
-        <v>2988.736</v>
+        <v>762.41</v>
       </c>
       <c r="N2">
-        <v>0.06232064290391057</v>
+        <v>0.01631671649648908</v>
       </c>
       <c r="O2">
-        <v>0.5023423423423423</v>
+        <v>0.3247891283973758</v>
       </c>
       <c r="P2">
-        <v>2988.736</v>
+        <v>757.73</v>
       </c>
       <c r="Q2">
-        <v>0.06232064290391057</v>
+        <v>0.01621655748335499</v>
       </c>
       <c r="R2">
-        <v>0.5023423423423423</v>
+        <v>0.3227954332452926</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>4.679999999999999</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.006138429453968336</v>
       </c>
       <c r="U2">
-        <v>62116.3</v>
+        <v>202176.9</v>
       </c>
       <c r="V2">
-        <v>1.29523910804172</v>
+        <v>4.326888628741784</v>
       </c>
       <c r="W2">
-        <v>0.1132106095796566</v>
+        <v>0.01729750430841897</v>
       </c>
       <c r="X2">
-        <v>0.1370245962774475</v>
+        <v>0.142979431556923</v>
       </c>
       <c r="Y2">
-        <v>-0.02381398669779096</v>
+        <v>-0.125681927248504</v>
       </c>
       <c r="Z2">
-        <v>0.07866827589586756</v>
+        <v>0.0669975475984444</v>
       </c>
       <c r="AA2">
-        <v>3.039036278920803e-05</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.03827660176582471</v>
+        <v>0.03274378739066153</v>
       </c>
       <c r="AC2">
-        <v>-0.0382462114030355</v>
+        <v>-0.03274378739066153</v>
       </c>
       <c r="AD2">
-        <v>232367.1</v>
+        <v>411900.9</v>
       </c>
       <c r="AE2">
-        <v>1387.077694094738</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>233754.1776940947</v>
+        <v>411900.9</v>
       </c>
       <c r="AG2">
-        <v>171637.8776940947</v>
+        <v>209724</v>
       </c>
       <c r="AH2">
-        <v>0.8297641850840932</v>
+        <v>0.8981182077097142</v>
       </c>
       <c r="AI2">
-        <v>0.7914778423997805</v>
+        <v>0.8193644498852017</v>
       </c>
       <c r="AJ2">
-        <v>0.7816100578136902</v>
+        <v>0.8177977981647083</v>
       </c>
       <c r="AK2">
-        <v>0.7359402309634993</v>
+        <v>0.6978450468820344</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>780.5411488075245</v>
-      </c>
-      <c r="AP2">
-        <v>576.5464484181886</v>
       </c>
     </row>
     <row r="3">
@@ -713,7 +707,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NIBC Holding N.V. (ENXTAM:NIBC)</t>
+          <t>Van Lanschot Kempen N.V. (ENXTAM:VLK)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -722,13 +716,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.22</v>
+        <v>-0.0052</v>
       </c>
       <c r="E3">
-        <v>0.8140000000000001</v>
-      </c>
-      <c r="F3">
-        <v>-0.0279</v>
+        <v>-0.224</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -743,85 +734,85 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>245.8</v>
+        <v>27.1</v>
       </c>
       <c r="L3">
-        <v>0.4390069655295589</v>
+        <v>0.05126749905410519</v>
       </c>
       <c r="M3">
-        <v>101.8</v>
+        <v>12.29</v>
       </c>
       <c r="N3">
-        <v>0.08291927995438625</v>
+        <v>0.01170699180796342</v>
       </c>
       <c r="O3">
-        <v>0.4141578519121236</v>
+        <v>0.4535055350553505</v>
       </c>
       <c r="P3">
-        <v>101.8</v>
+        <v>7.61</v>
       </c>
       <c r="Q3">
-        <v>0.08291927995438625</v>
+        <v>0.007248999809487522</v>
       </c>
       <c r="R3">
-        <v>0.4141578519121236</v>
+        <v>0.2808118081180812</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>4.679999999999999</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.3807973962571196</v>
       </c>
       <c r="U3">
-        <v>2214.4</v>
+        <v>2371.8</v>
       </c>
       <c r="V3">
-        <v>1.803697971817219</v>
+        <v>2.259287483330159</v>
       </c>
       <c r="W3">
-        <v>0.1262260565911775</v>
+        <v>0.01729750430841897</v>
       </c>
       <c r="X3">
-        <v>0.1586844635894112</v>
+        <v>0.09610557732932715</v>
       </c>
       <c r="Y3">
-        <v>-0.03245840699823371</v>
+        <v>-0.07880807302090817</v>
       </c>
       <c r="Z3">
-        <v>0.05669758587167854</v>
+        <v>0.1547605105984307</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.03720231214099709</v>
+        <v>0.03148349401109913</v>
       </c>
       <c r="AC3">
-        <v>-0.03720231214099709</v>
+        <v>-0.03148349401109913</v>
       </c>
       <c r="AD3">
-        <v>9291.1</v>
+        <v>3971.1</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>9291.1</v>
+        <v>3971.1</v>
       </c>
       <c r="AG3">
-        <v>7076.700000000001</v>
+        <v>1599.3</v>
       </c>
       <c r="AH3">
-        <v>0.8832851656082442</v>
+        <v>0.7909139795654166</v>
       </c>
       <c r="AI3">
-        <v>0.8046750502321069</v>
+        <v>0.7268018595116951</v>
       </c>
       <c r="AJ3">
-        <v>0.8521627089253889</v>
+        <v>0.6037144690649655</v>
       </c>
       <c r="AK3">
-        <v>0.7583261894556366</v>
+        <v>0.5172380336351875</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -838,127 +829,243 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>ABN AMRO Bank N.V. (ENXTAM:ABN)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Bank (Money Center)</t>
+        </is>
+      </c>
+      <c r="D4">
+        <v>-0.0614</v>
+      </c>
+      <c r="E4">
+        <v>-0.362</v>
+      </c>
+      <c r="F4">
+        <v>-0.198</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>254.8</v>
+      </c>
+      <c r="L4">
+        <v>0.03728307629276287</v>
+      </c>
+      <c r="M4">
+        <v>750.12</v>
+      </c>
+      <c r="N4">
+        <v>0.08134203734628816</v>
+      </c>
+      <c r="O4">
+        <v>2.943956043956044</v>
+      </c>
+      <c r="P4">
+        <v>750.12</v>
+      </c>
+      <c r="Q4">
+        <v>0.08134203734628816</v>
+      </c>
+      <c r="R4">
+        <v>2.943956043956044</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>69367.10000000001</v>
+      </c>
+      <c r="V4">
+        <v>7.522078119239195</v>
+      </c>
+      <c r="W4">
+        <v>0.01113013698630137</v>
+      </c>
+      <c r="X4">
+        <v>0.3434678308875967</v>
+      </c>
+      <c r="Y4">
+        <v>-0.3323376939012953</v>
+      </c>
+      <c r="Z4">
+        <v>0.05422965435756721</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0.03274378739066153</v>
+      </c>
+      <c r="AC4">
+        <v>-0.03274378739066153</v>
+      </c>
+      <c r="AD4">
+        <v>169326</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>169326</v>
+      </c>
+      <c r="AG4">
+        <v>99958.89999999999</v>
+      </c>
+      <c r="AH4">
+        <v>0.9483510858156752</v>
+      </c>
+      <c r="AI4">
+        <v>0.8737737825550733</v>
+      </c>
+      <c r="AJ4">
+        <v>0.9155363539526674</v>
+      </c>
+      <c r="AK4">
+        <v>0.8033996169423059</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>ING Groep N.V. (ENXTAM:INGA)</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Bank (Money Center)</t>
         </is>
       </c>
-      <c r="D4">
-        <v>0.0499</v>
-      </c>
-      <c r="E4">
-        <v>0.494</v>
-      </c>
-      <c r="F4">
-        <v>-0.0196</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0.001056262298534278</v>
-      </c>
-      <c r="J4">
-        <v>0.0007638915440906795</v>
-      </c>
-      <c r="K4">
-        <v>5703.8</v>
-      </c>
-      <c r="L4">
-        <v>0.2970110393667986</v>
-      </c>
-      <c r="M4">
-        <v>2886.936</v>
-      </c>
-      <c r="N4">
-        <v>0.0617794678758905</v>
-      </c>
-      <c r="O4">
-        <v>0.5061425716189207</v>
-      </c>
-      <c r="P4">
-        <v>2886.936</v>
-      </c>
-      <c r="Q4">
-        <v>0.0617794678758905</v>
-      </c>
-      <c r="R4">
-        <v>0.5061425716189207</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>59901.9</v>
-      </c>
-      <c r="V4">
-        <v>1.281880688298876</v>
-      </c>
-      <c r="W4">
-        <v>0.1001951625681356</v>
-      </c>
-      <c r="X4">
-        <v>0.1153647289654838</v>
-      </c>
-      <c r="Y4">
-        <v>-0.01516956639734822</v>
-      </c>
-      <c r="Z4">
-        <v>0.07956721873491633</v>
-      </c>
-      <c r="AA4">
-        <v>6.078072557841607e-05</v>
-      </c>
-      <c r="AB4">
-        <v>0.03935089139065233</v>
-      </c>
-      <c r="AC4">
-        <v>-0.03929011066507392</v>
-      </c>
-      <c r="AD4">
-        <v>223076</v>
-      </c>
-      <c r="AE4">
-        <v>1387.077694094738</v>
-      </c>
-      <c r="AF4">
-        <v>224463.0776940947</v>
-      </c>
-      <c r="AG4">
-        <v>164561.1776940947</v>
-      </c>
-      <c r="AH4">
-        <v>0.8276882577871927</v>
-      </c>
-      <c r="AI4">
-        <v>0.7909408999066131</v>
-      </c>
-      <c r="AJ4">
-        <v>0.7788371154023276</v>
-      </c>
-      <c r="AK4">
-        <v>0.7350071601447082</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>749.3315418206248</v>
-      </c>
-      <c r="AP4">
-        <v>552.7752021971608</v>
+      <c r="D5">
+        <v>-0.0204</v>
+      </c>
+      <c r="E5">
+        <v>-0.166</v>
+      </c>
+      <c r="F5">
+        <v>-0.00028</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>2065.5</v>
+      </c>
+      <c r="L5">
+        <v>0.1278884018129133</v>
+      </c>
+      <c r="M5">
+        <v>-0</v>
+      </c>
+      <c r="N5">
+        <v>-0</v>
+      </c>
+      <c r="O5">
+        <v>-0</v>
+      </c>
+      <c r="P5">
+        <v>-0</v>
+      </c>
+      <c r="Q5">
+        <v>-0</v>
+      </c>
+      <c r="R5">
+        <v>-0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>130438</v>
+      </c>
+      <c r="V5">
+        <v>3.578143473573618</v>
+      </c>
+      <c r="W5">
+        <v>0.03539900358360283</v>
+      </c>
+      <c r="X5">
+        <v>0.142979431556923</v>
+      </c>
+      <c r="Y5">
+        <v>-0.1075804279733201</v>
+      </c>
+      <c r="Z5">
+        <v>0.07290793921359028</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0.03367471697282425</v>
+      </c>
+      <c r="AC5">
+        <v>-0.03367471697282425</v>
+      </c>
+      <c r="AD5">
+        <v>238603.8</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>238603.8</v>
+      </c>
+      <c r="AG5">
+        <v>108165.8</v>
+      </c>
+      <c r="AH5">
+        <v>0.8674675404705701</v>
+      </c>
+      <c r="AI5">
+        <v>0.7862853715682947</v>
+      </c>
+      <c r="AJ5">
+        <v>0.7479316470278294</v>
+      </c>
+      <c r="AK5">
+        <v>0.6251671781711834</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
